--- a/rozwiazania/Szymon_Grzebyta/Task3_Line_plot_by_months_2019_vs_top_product.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task3_Line_plot_by_months_2019_vs_top_product.xlsx
@@ -469,7 +469,7 @@
         <v>399500</v>
       </c>
       <c r="D2" t="n">
-        <v>1815335.11999991</v>
+        <v>1815335.12</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>467500</v>
       </c>
       <c r="D3" t="n">
-        <v>2203481.239999965</v>
+        <v>2203481.24</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>646000</v>
       </c>
       <c r="D4" t="n">
-        <v>2809063.300000339</v>
+        <v>2809063.3</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>773500</v>
       </c>
       <c r="D5" t="n">
-        <v>3396059.110000708</v>
+        <v>3396059.11</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>787100</v>
       </c>
       <c r="D6" t="n">
-        <v>3144584.800000549</v>
+        <v>3144584.8</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>605200</v>
       </c>
       <c r="D7" t="n">
-        <v>2578293.300000204</v>
+        <v>2578293.3</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>625600</v>
       </c>
       <c r="D8" t="n">
-        <v>2646899.690000243</v>
+        <v>2646899.69</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>508300</v>
       </c>
       <c r="D9" t="n">
-        <v>2244412.310000001</v>
+        <v>2244412.31</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         <v>489600</v>
       </c>
       <c r="D10" t="n">
-        <v>2098816.699999899</v>
+        <v>2098816.7</v>
       </c>
     </row>
     <row r="11">
@@ -613,7 +613,7 @@
         <v>892500</v>
       </c>
       <c r="D11" t="n">
-        <v>3736884.050000953</v>
+        <v>3736884.05</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>748000</v>
       </c>
       <c r="D12" t="n">
-        <v>3198909.230000576</v>
+        <v>3198909.23</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>1094800</v>
       </c>
       <c r="D13" t="n">
-        <v>4619297.120001525</v>
+        <v>4619297.12</v>
       </c>
     </row>
   </sheetData>
